--- a/New Folder/Drag.xlsx
+++ b/New Folder/Drag.xlsx
@@ -418,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9996">
+  <borders count="10924">
     <border>
       <left/>
       <right/>
@@ -10507,11 +10507,939 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10025">
+  <cellXfs count="10953">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -20543,6 +21471,934 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9993" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9994" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10923" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23691,7 +25547,7 @@
     <col min="3" max="3" width="10.5546875" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" bestFit="true" customWidth="true"/>
     <col min="5" max="9" width="10.5546875" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
     <col min="11" max="22" width="10.5546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
@@ -23840,7 +25696,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="32">
-        <v>1.6873505439715872</v>
+        <v>1.7179207238840504</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>10</v>
@@ -23873,7 +25729,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="27">
-        <v>923.05285991323319</v>
+        <v>947.20489485406256</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>8</v>
@@ -23884,7 +25740,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="32">
-        <v>25.310258159573806</v>
+        <v>25.76881085826076</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>10</v>
@@ -23915,7 +25771,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="7">
-        <v>1.1249003626477247</v>
+        <v>1.145280482589367</v>
       </c>
       <c r="K7" s="37" t="s">
         <v>10</v>
@@ -24067,7 +25923,7 @@
         <v>0.1026</v>
       </c>
       <c r="J14" s="7">
-        <v>0.19284006216818142</v>
+        <v>0.19633379701532006</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="8"/>
@@ -24090,7 +25946,7 @@
         <v>2.8163</v>
       </c>
       <c r="J15" s="7">
-        <v>0.04337525741615661</v>
+        <v>0.042987596497285188</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="8"/>

--- a/New Folder/Drag.xlsx
+++ b/New Folder/Drag.xlsx
@@ -418,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10924">
+  <borders count="9996">
     <border>
       <left/>
       <right/>
@@ -10507,939 +10507,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10953">
+  <cellXfs count="10025">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -21471,934 +20543,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9993" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9994" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9995" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9996" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9997" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9998" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9999" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10000" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10001" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10002" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10003" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10004" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10005" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10006" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10007" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10008" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10009" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10010" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10011" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10012" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10013" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10014" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10015" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10016" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10017" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10018" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10019" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10020" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10021" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10022" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10023" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10024" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10025" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10026" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10027" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10028" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10029" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10030" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10031" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10032" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10033" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10034" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10035" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10036" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10037" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10038" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10039" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10040" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10041" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10042" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10043" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10044" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10045" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10046" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10047" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10048" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10049" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10050" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10051" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10052" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10053" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10054" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10055" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10056" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10057" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10058" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10059" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10060" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10061" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10062" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10063" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10064" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10065" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10066" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10067" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10068" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10069" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10070" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10071" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10072" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10073" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10074" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10075" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10076" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10077" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10078" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10079" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10080" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10081" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10082" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10083" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10084" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10085" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10086" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10087" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10088" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10089" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10090" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10091" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10092" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10093" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10094" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10095" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10096" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10097" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10098" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10099" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10100" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10101" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10102" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10103" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10104" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10105" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10106" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10107" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10108" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10109" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10110" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10111" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10112" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10113" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10114" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10115" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10116" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10117" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10118" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10119" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10120" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10121" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10122" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10123" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10124" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10125" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10126" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10127" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10128" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10129" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10130" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10131" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10132" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10133" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10134" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10135" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10136" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10137" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10138" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10139" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10140" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10141" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10142" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10143" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10144" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10145" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10146" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10147" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10148" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10149" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10150" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10151" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10152" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10153" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10154" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10155" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10156" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10157" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10158" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10159" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10160" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10161" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10162" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10163" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10164" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10165" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10166" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10167" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10168" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10169" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10170" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10171" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10172" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10173" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10174" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10175" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10176" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10177" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10178" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10179" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10180" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10181" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10182" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10183" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10184" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10185" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10186" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10187" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10188" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10189" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10190" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10191" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10192" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10193" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10194" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10195" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10196" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10197" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10198" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10199" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10200" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10201" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10202" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10203" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10204" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10205" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10206" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10207" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10208" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10209" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10210" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10211" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10212" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10213" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10214" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10215" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10216" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10217" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10218" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10219" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10220" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10221" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10222" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10223" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10224" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10225" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10226" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10227" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10228" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10229" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10230" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10231" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10232" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10233" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10234" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10235" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10236" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10237" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10238" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10239" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10240" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10241" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10242" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10243" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10244" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10245" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10246" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10247" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10248" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10249" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10250" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10251" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10252" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10253" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10254" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10255" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10256" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10257" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10258" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10259" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10260" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10261" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10262" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10263" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10264" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10265" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10266" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10267" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10268" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10269" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10270" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10271" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10272" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10273" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10274" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10275" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10276" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10277" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10278" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10279" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10280" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10281" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10282" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10283" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10284" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10285" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10286" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10287" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10288" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10289" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10290" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10291" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10292" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10293" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10294" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10295" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10296" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10297" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10298" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10299" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10300" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10301" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10302" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10303" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10304" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10305" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10306" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10307" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10308" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10309" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10310" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10311" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10312" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10313" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10314" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10315" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10316" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10317" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10318" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10319" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10320" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10321" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10322" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10323" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10324" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10325" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10326" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10327" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10328" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10329" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10330" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10331" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10332" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10333" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10334" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10335" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10336" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10337" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10338" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10339" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10340" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10341" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10342" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10343" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10344" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10345" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10346" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10347" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10348" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10349" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10350" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10351" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10352" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10353" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10354" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10355" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10356" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10357" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10358" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10359" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10360" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10361" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10362" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10363" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10364" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10365" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10366" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10367" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10368" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10369" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10370" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10371" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10372" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10373" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10374" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10375" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10376" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10377" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10378" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10379" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10380" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10381" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10382" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10383" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10384" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10385" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10386" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10387" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10388" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10389" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10390" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10391" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10392" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10393" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10394" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10395" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10396" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10397" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10398" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10399" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10400" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10401" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10402" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10403" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10404" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10405" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10406" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10407" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10408" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10409" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10410" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10411" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10412" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10413" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10414" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10415" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10416" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10417" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10418" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10419" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10420" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10421" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10422" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10423" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10424" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10425" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10426" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10427" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10428" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10429" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10430" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10431" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10432" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10433" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10434" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10435" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10436" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10437" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10438" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10439" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10440" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10441" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10442" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10443" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10444" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10445" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10446" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10447" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10448" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10449" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10450" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10451" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10452" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10453" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10454" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10455" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10456" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10457" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10458" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10459" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10460" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10461" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10462" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10463" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10464" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10465" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10466" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10467" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10468" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10469" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10470" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10471" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10472" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10473" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10474" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10475" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10476" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10477" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10478" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10479" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10480" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10481" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10482" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10483" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10484" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10485" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10486" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10487" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10488" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10489" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10490" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10491" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10492" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10493" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10494" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10495" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10496" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10497" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10498" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10499" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10500" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10501" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10502" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10503" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10504" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10505" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10506" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10507" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10508" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10509" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10510" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10511" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10512" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10513" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10514" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10515" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10516" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10517" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10518" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10519" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10520" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10521" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10522" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10523" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10524" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10525" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10526" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10527" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10528" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10529" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10530" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10531" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10532" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10533" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10534" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10535" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10536" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10537" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10538" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10539" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10540" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10541" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10542" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10543" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10544" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10545" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10546" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10547" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10548" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10549" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10550" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10551" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10552" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10553" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10554" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10555" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10556" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10557" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10558" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10559" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10560" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10561" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10562" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10563" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10564" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10565" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10566" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10567" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10568" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10569" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10570" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10571" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10572" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10573" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10574" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10575" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10576" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10577" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10578" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10579" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10580" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10581" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10582" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10583" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10584" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10585" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10586" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10587" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10588" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10589" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10590" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10591" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10592" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10593" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10594" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10595" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10596" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10597" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10598" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10599" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10600" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10601" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10602" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10603" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10604" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10605" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10606" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10607" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10608" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10609" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10610" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10611" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10612" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10613" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10614" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10615" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10616" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10617" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10618" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10619" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10620" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10621" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10622" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10623" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10624" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10625" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10626" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10627" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10628" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10629" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10630" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10631" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10632" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10633" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10634" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10635" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10636" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10637" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10638" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10639" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10640" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10641" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10642" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10643" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10644" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10645" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10646" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10647" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10648" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10649" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10650" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10651" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10652" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10653" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10654" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10655" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10656" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10657" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10658" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10659" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10660" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10661" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10662" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10663" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10664" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10665" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10666" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10667" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10668" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10669" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10670" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10671" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10672" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10673" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10674" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10675" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10676" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10677" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10678" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10679" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10680" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10681" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10682" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10683" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10684" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10685" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10686" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10687" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10688" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10689" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10690" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10691" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10692" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10693" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10694" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10695" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10696" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10697" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10698" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10699" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10700" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10701" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10702" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10703" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10704" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10705" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10706" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10707" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10708" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10709" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10710" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10711" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10712" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10713" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10714" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10715" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10716" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10717" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10718" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10719" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10720" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10721" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10722" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10723" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10724" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10725" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10726" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10727" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10728" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10729" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10730" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10731" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10732" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10733" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10734" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10735" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10736" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10737" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10738" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10739" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10740" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10741" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10742" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10743" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10744" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10745" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10746" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10747" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10748" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10749" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10750" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10751" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10752" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10753" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10754" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10755" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10756" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10757" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10758" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10759" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10760" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10761" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10762" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10763" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10764" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10765" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10766" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10767" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10768" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10769" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10770" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10771" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10772" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10773" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10774" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10775" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10776" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10777" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10778" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10779" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10780" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10781" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10782" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10783" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10784" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10785" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10786" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10787" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10788" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10789" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10790" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10791" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10792" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10793" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10794" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10795" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10796" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10797" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10798" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10799" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10800" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10801" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10802" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10803" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10804" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10805" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10806" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10807" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10808" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10809" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10810" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10811" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10812" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10813" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10814" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10815" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10816" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10817" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10818" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10819" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10820" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10821" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10822" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10823" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10824" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10825" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10826" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10827" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10828" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10829" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10830" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10831" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10832" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10833" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10834" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10835" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10836" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10837" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10838" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10839" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10840" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10841" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10842" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10843" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10844" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10845" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10846" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10847" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10848" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10849" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10850" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10851" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10852" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10853" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10854" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10855" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10856" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10857" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10858" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10859" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10860" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10861" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10862" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10863" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10864" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10865" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10866" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10867" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10868" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10869" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10870" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10871" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10872" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10873" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10874" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10875" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10876" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10877" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10878" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10879" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10880" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10881" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10882" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10883" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10884" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10885" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10886" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10887" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10888" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10889" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10890" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10891" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10892" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10893" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10894" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10895" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10896" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10897" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10898" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10899" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10900" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10901" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10902" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10903" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10904" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10905" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10906" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10907" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10908" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10909" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10910" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10911" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10912" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10913" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10914" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10915" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10916" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10917" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10918" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10919" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10920" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10921" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10922" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10923" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25547,7 +23691,7 @@
     <col min="3" max="3" width="10.5546875" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" bestFit="true" customWidth="true"/>
     <col min="5" max="9" width="10.5546875" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="13.7109375" bestFit="true" customWidth="true"/>
     <col min="11" max="22" width="10.5546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
@@ -25696,7 +23840,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="32">
-        <v>1.7179207238840504</v>
+        <v>1.6873505439715872</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>10</v>
@@ -25729,7 +23873,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="27">
-        <v>947.20489485406256</v>
+        <v>923.05285991323319</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>8</v>
@@ -25740,7 +23884,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="32">
-        <v>25.76881085826076</v>
+        <v>25.310258159573806</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>10</v>
@@ -25771,7 +23915,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="7">
-        <v>1.145280482589367</v>
+        <v>1.1249003626477247</v>
       </c>
       <c r="K7" s="37" t="s">
         <v>10</v>
@@ -25923,7 +24067,7 @@
         <v>0.1026</v>
       </c>
       <c r="J14" s="7">
-        <v>0.19633379701532006</v>
+        <v>0.19284006216818142</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="8"/>
@@ -25946,7 +24090,7 @@
         <v>2.8163</v>
       </c>
       <c r="J15" s="7">
-        <v>0.042987596497285188</v>
+        <v>0.04337525741615661</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="8"/>

--- a/New Folder/Drag.xlsx
+++ b/New Folder/Drag.xlsx
@@ -418,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9996">
+  <borders count="12204">
     <border>
       <left/>
       <right/>
@@ -10507,11 +10507,2219 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10025">
+  <cellXfs count="12233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -20543,6 +22751,2214 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9993" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9994" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12203" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23840,7 +28256,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="32">
-        <v>1.6873505439715872</v>
+        <v>1.6574648167327897</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>10</v>
@@ -23873,7 +28289,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="27">
-        <v>923.05285991323319</v>
+        <v>877.67112986548818</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>8</v>
@@ -23884,7 +28300,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="32">
-        <v>25.310258159573806</v>
+        <v>24.861972250991844</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>10</v>
@@ -23915,7 +28331,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="7">
-        <v>1.1249003626477247</v>
+        <v>1.1049765444885262</v>
       </c>
       <c r="K7" s="37" t="s">
         <v>10</v>
@@ -24067,7 +28483,7 @@
         <v>0.1026</v>
       </c>
       <c r="J14" s="7">
-        <v>0.19284006216818142</v>
+        <v>0.1894245504837474</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="8"/>
@@ -24090,7 +28506,7 @@
         <v>2.8163</v>
       </c>
       <c r="J15" s="7">
-        <v>0.04337525741615661</v>
+        <v>0.043764559739979267</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="8"/>
@@ -24114,7 +28530,7 @@
         <v>11.547000000000001</v>
       </c>
       <c r="J16" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
